--- a/Output/R1_201908/Country/HKD/MN/MALTA_201908_HKD_MN.xlsx
+++ b/Output/R1_201908/Country/HKD/MN/MALTA_201908_HKD_MN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\Output\R1_201908\Country\HKD\MN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806B841-6470-4B5F-84E6-7292B9EDCCDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6381C8-00CD-4CA2-8FF7-CC91ED3E735C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="1572" windowWidth="19572" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKD_MN" sheetId="1" r:id="rId1"/>
@@ -2766,8 +2766,8 @@
       </c>
       <c r="H73" s="18"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
@@ -13886,7 +13886,7 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G73:K73"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
